--- a/biodata_records.xlsx
+++ b/biodata_records.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM6"/>
+  <dimension ref="A1:AM7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1583,6 +1583,203 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>reeya</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2013-02-23</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Unmarried</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>12:15:00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Web Developer</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Employa Technologies</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>15,000</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>np</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>shivanismishra352@gmail.com</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>8780757410</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>np</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>Sanjiv</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>Savita</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>07990208986</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>08780757430</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Chikhli</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>assd</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>asdddf</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>27 to 30</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>np</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>/media/photographs/blog1.jpg</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>2025-04-23 06:46:19.511106+00:00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/biodata_records.xlsx
+++ b/biodata_records.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM7"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1780,6 +1780,4330 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>reeya2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Unmarried</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10:16:00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Web Developer</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Employa Technologies</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>15,000</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>shivanismishra352@gmail.com</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>8780757410</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>Sanjiv</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>Savita</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>07990208986</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>07990208986</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Chikhli</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>assd</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>asdddf</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>27 to 30</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>np</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>/media/photographs/blog12.jpg</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>2025-04-26 04:47:57.255207+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Shivam</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2013-06-26</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Unmarried</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10:34:00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Web Developer</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Employa Technologies</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>15,000</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>shivanismishra352@gmail.com</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>8780757410</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>Sanjiv</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>Savita</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>07990208986</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>07990208986</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Chikhli</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>assd</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>asdddf</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>27 to 30</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>/media/photographs/Blog22.jpg</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>2025-04-26 05:05:06.349703+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Shivam1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Unmarried</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>11:31:00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Web Developer</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Employa Technologies</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>15,000</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>shivani210180107032@gmail.com</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>8780757410</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>Sanjiv</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>Savita</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>07990208986</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>07990208986</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Chikhli</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>assd</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>asdddf</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>27 to 30</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>/media/photographs/Blog20.jpg</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>2025-04-26 06:02:22.710926+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Shivam11</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Unmarried</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>11:47:00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Web Developer</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Employa Technologies</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>15,000</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>shivani210180107032@gmail.com</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>8780757410</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>Sanjiv</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>Savita</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>07990208986</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>07990208986</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Chikhli</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>assd</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>asdddf</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>27 to 30</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>/media/photographs/Blog22_mbz6K3c.jpg</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>2025-04-26 06:17:43.706360+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pinky</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2020-07-08</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Unmarried</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>12:18:00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Web Developer</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Employa Technologies</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>15,000</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>shivani210180107032@gmail.com</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>8780757410</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>Sanjiv</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>Savita</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>07990208986</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>07990208986</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Chikhli</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>assd</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>asdddf</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>27 to 30</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>/media/photographs/Blog20_wLk1XKt.jpg</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>2025-04-26 06:48:35.098878+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pinky</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2016-03-26</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Unmarried</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>12:33:00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Web Developer</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Employa Technologies</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>15,000</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>shivani210180107032@gmail.com</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>8780757410</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>Sanjiv</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>Savita</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>07990208986</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>07990208986</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Chikhli</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>assd</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>asdddf</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>27 to 30</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>/media/photographs/blog12_iXJJS9M.jpg</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>2025-04-26 07:03:34.176537+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pinky</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2010-02-26</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Unmarried</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>13:44:00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Web Developer</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Employa Technologies</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>15,000</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>shivani210180107032@gmail.com</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>8780757410</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>Sanjiv</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>Savita</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>07990208986</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>07990208986</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Chikhli</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>assd</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>asdddf</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>27 to 30</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>/media/photographs/Blog20_O2NAwJE.jpg</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>2025-04-26 08:14:54.874206+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Shivani</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Unmarried</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>13:45:00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Web Developer</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Employa Technologies</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>15,000</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>shivani210180107032@gmail.com</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>8780757410</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>Sanjiv</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>Savita</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>07990208986</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>07990208986</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Chikhli</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>assd</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>asdddf</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>27 to 30</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>/media/photographs/Blog28.jpg</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>2025-04-26 08:16:14.778264+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Simran</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2007-06-26</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Unmarried</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>13:56:00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Web Developer</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Employa Technologies</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>15,000</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>shivanismishra352@gmail.com</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>8780757410</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>Sanjiv</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>Savita</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>07990208986</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>07990208986</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Chikhli</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>assd</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>asdddf</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>27 to 30</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>/media/photographs/blog17_NqtMJpQ.jpg</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>2025-04-26 08:27:29.112680+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Simran1</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Unmarried</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Web Developer</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Employa Technologies</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>15,000</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>shivanismishra352@gmail.com</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>8780757410</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>Sanjiv</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>Savita</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>07990208986</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>07990208986</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Chikhli</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>assd</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>asdddf</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>27 to 30</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>/media/photographs/Blog20_75lkz0u.jpg</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>2025-04-26 08:30:39.488023+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Simran11</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-04-26</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Unmarried</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>02:03:00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Web Developer</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Employa Technologies</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>15,000</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>shivanismishra352@gmail.com</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>8780757410</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>Sanjiv</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>Savita</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>07990208986</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>07990208986</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Chikhli</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>assd</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>asdddf</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>27 to 30</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>/media/photographs/blog11_WLqrmuF.jpg</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>2025-04-26 08:33:23.052124+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Simran11</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2021-11-26</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Unmarried</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>14:24:00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Web Developer</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Employa Technologies</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>15,000</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>shivanismishra352@gmail.com</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>8780757410</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>Sanjiv</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>Savita</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>07990208986</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>07990208986</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Chikhli</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>assd</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>asdddf</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>27 to 30</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>/media/photographs/blog53.jpg</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>2025-04-26 08:54:42.710516+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Simran11</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Unmarried</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>14:41:00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Web Developer</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Employa Technologies</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>15,000</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>zz</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>shivanismishra352@gmail.com</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>8780757410</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>zz</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>Sanjiv</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>Savita</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>07990208986</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>07990208986</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Chikhli</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>assd</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>asdddf</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>27 to 30</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>zz</t>
+        </is>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>/media/photographs/blog1.jpg</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>2025-04-26 09:11:33.337866+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pinky</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Unmarried</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>14:58:00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Web Developer</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Employa Technologies</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>15,000</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>shivanismishra352@gmail.com</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>8780757410</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>Sanjiv</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>Savita</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>07990208986</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>07990208986</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Chikhli</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>assd</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>asdddf</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>27 to 30</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>/media/photographs/Blog22.jpg</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>2025-04-26 09:29:31.454339+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pinky1</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Unmarried</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>15:20:00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Web Developer</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Employa Technologies</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>15,000</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>shivanismishra352@gmail.com</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>8780757410</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>Sanjiv</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>Savita</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>07990208986</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>07990208986</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Chikhli</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>assd</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>asdddf</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>27 to 30</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>/media/photographs/Blog19.jpg</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>2025-04-26 09:50:31.498179+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pinky11</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2005-06-07</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Unmarried</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Web Developer</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Employa Technologies</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>15,000</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>shivanismishra352@gmail.com</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>8780757410</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>Sanjiv</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>Savita</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>07990208986</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>07990208986</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Chikhli</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>assd</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>asdddf</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>27 to 30</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>/media/photographs/Blog20.jpg</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>2025-04-26 10:01:08.813723+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pinky11</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2023-10-24</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Unmarried</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>05:48:00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Web Developer</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Employa Technologies</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>15,000</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>shivanismishra352@gmail.com</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>8780757410</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>Sanjiv</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>Savita</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>07990208986</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>08780757430</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Chikhli</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>assd</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>asdddf</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>27 to 30</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>/media/photographs/blog11.jpg</t>
+        </is>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>2025-04-26 10:23:42.998594+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ddfg</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2013-06-27</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Unmarried</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>01:56:00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Web Developer</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Employa Technologies</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>15,000</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>xx</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>shivanismishra352@gmail.com</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>8780757410</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>xx</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>Sanjiv</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>Savita</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>07990208986</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>08780757430</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Chikhli</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>assd</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>asdddf</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>27 to 30</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>xx</t>
+        </is>
+      </c>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>/media/photographs/blog15.jpg</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>2025-04-27 08:27:20.643737+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ddfg1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2015-06-27</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Unmarried</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>14:21:00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Web Developer</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Employa Technologies</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>15,000</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>qq</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>shivani210180107032@gmail.com</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>8780757410</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>qq</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>Sanjiv</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>Savita</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>07990208986</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>08780757430</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Chikhli</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>assd</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>asdddf</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>27 to 30</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+      <c r="AL26" t="inlineStr">
+        <is>
+          <t>/media/photographs/Blog19.jpg</t>
+        </is>
+      </c>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>2025-04-27 08:52:41.682704+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ddfg1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2013-06-27</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Unmarried</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>03:11:00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Web Developer</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Employa Technologies</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>15,000</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>shivani210180107032@gmail.com</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>8780757410</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>Sanjiv</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>Savita</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>07990208986</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>08780757430</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Chikhli</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>assd</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>asdddf</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>27 to 30</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>/media/photographs/blog16.jpg</t>
+        </is>
+      </c>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>2025-04-27 09:42:24.328807+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ddfg2</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2014-06-17</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Unmarried</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>15:34:00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Web Developer</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Employa Technologies</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>15,000</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>shivani210180107032@gmail.com</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>8780757410</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>Sanjiv</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>Savita</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>07990208986</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>08780757430</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Chikhli</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>assd</t>
+        </is>
+      </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>asdddf</t>
+        </is>
+      </c>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>27 to 30</t>
+        </is>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+      <c r="AL28" t="inlineStr">
+        <is>
+          <t>/media/photographs/Blog19_CvQZy4X.jpg</t>
+        </is>
+      </c>
+      <c r="AM28" t="inlineStr">
+        <is>
+          <t>2025-04-27 10:05:02.333288+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ddfg4</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2014-06-18</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Unmarried</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>15:39:00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Web Developer</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Employa Technologies</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>15,000</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>xs</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>shivani210180107032@gmail.com</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>8780757410</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>asas</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>Sanjiv</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>Savita</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>07990208986</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>08780757430</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Chikhli</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>assd</t>
+        </is>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>asdddf</t>
+        </is>
+      </c>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>27 to 30</t>
+        </is>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>B.E</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+      <c r="AL29" t="inlineStr">
+        <is>
+          <t>/media/photographs/blog17.jpg</t>
+        </is>
+      </c>
+      <c r="AM29" t="inlineStr">
+        <is>
+          <t>2025-04-27 10:09:22.780025+00:00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
